--- a/Análise Inicial.xlsx
+++ b/Análise Inicial.xlsx
@@ -9023,8 +9023,9 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -10153,16 +10154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10182,6 +10183,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5903</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59532</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8966200" y="635000"/>
+          <a:ext cx="76200" cy="8788400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10457,8 +10502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15585,8 +15630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16681,6 +16726,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>